--- a/Aanlanding wind op zee groningen/load1.xlsx
+++ b/Aanlanding wind op zee groningen/load1.xlsx
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.6646310424346105</v>
+        <v>7.513606542302714</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>7.966445313902855</v>
+        <v>11.045904247655477</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.6062577531427147</v>
+        <v>4.507476161776464</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>5.3648189490587095</v>
+        <v>8.429928190857767</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>4.6646310424346105</v>
+        <v>7.513606542302714</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>3.7444705355614225</v>
+        <v>5.931680283454654</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,7 +481,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>-8.42267121442149</v>
+        <v>-6.713597735725909</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,7 +492,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>3.7444705355614225</v>
+        <v>5.931680283454654</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.666805357975549</v>
+        <v>-7.085929072719653</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>5.3648189490587095</v>
+        <v>8.429928190857767</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>3.270995597817602</v>
+        <v>5.254005697606965</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>4.6646310424346105</v>
+        <v>7.513606542302714</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>-26.427872573610433</v>
+        <v>-24.387680885203473</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>-26.427872573610433</v>
+        <v>-24.387680885203473</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>3.270995597817602</v>
+        <v>5.254005697606965</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.42267121442149</v>
+        <v>-6.713597735725909</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>3.7444705355614225</v>
+        <v>5.931680283454654</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>1.6062577531427147</v>
+        <v>4.507476161776464</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>1.6062577531427147</v>
+        <v>4.507476161776464</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>3.7444705355614225</v>
+        <v>5.931680283454654</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>5.958993049910731</v>
+        <v>9.880168349976211</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1150298415886197</v>
+        <v>-0.10164381009790306</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.8655995579543633</v>
+        <v>-0.8630938569146074</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.4410897254538175</v>
+        <v>-1.5254682122211665</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.666805357975549</v>
+        <v>-7.085929072719653</v>
       </c>
     </row>
   </sheetData>
